--- a/biology/Zoologie/Galerucinae/Galerucinae.xlsx
+++ b/biology/Zoologie/Galerucinae/Galerucinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Galerucinae ou galéruques forment une sous-famille de coléoptères chrysomélidés. Ils ont un aspect assez similaire aux Criocerinae (criocères) sans présenter autant d'excroissances dans la chitine. La tête ne forme pas de cou.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (9 juillet 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (9 juillet 2013) :
 Galerucini
 Luperini
 Sermylini
-Selon ITIS      (9 juillet 2013)[2] :
+Selon ITIS      (9 juillet 2013) :
 Alticini Newman, 1835 ; mais Fauna Europaea place les genres de la tribu Alticini dans la sous-famille des Alticinae
 Galerucini Latreille, 1802
 Hylaspini Chapuis, 1875
@@ -549,9 +563,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (6 mai 2024)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 mai 2024) :
 Tribu Alticini
 Acallepitrix
 Acrocrypta
